--- a/Guru99HybridFramework/TestCase.xlsx
+++ b/Guru99HybridFramework/TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="KeywordFramework" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="60">
   <si>
     <t>Keyword</t>
   </si>
@@ -194,13 +194,19 @@
   </si>
   <si>
     <t>test1v234@gfddmail.com</t>
+  </si>
+  <si>
+    <t>mngr53809</t>
+  </si>
+  <si>
+    <t>YbeqEzY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +220,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -254,12 +268,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -279,7 +297,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -636,7 +658,7 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -697,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -712,7 +734,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -760,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -775,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -999,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1014,7 +1036,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1692,6 +1714,7 @@
     <hyperlink ref="E21" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
